--- a/oceny.xlsx
+++ b/oceny.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mariusz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED1F22E-EE7B-4329-B540-8AE2A1D29E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77EBF13C-5DDA-4DEC-A0E5-C85E3EA66DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -929,8 +929,8 @@
   <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1562,13 +1562,13 @@
         <v>4.5</v>
       </c>
       <c r="G15" s="23"/>
-      <c r="H15" s="22"/>
+      <c r="H15" s="22">
+        <v>5</v>
+      </c>
       <c r="I15" s="23">
-        <v>3</v>
-      </c>
-      <c r="J15" s="22">
-        <v>5</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="J15" s="22"/>
       <c r="K15" s="23"/>
       <c r="L15" s="22"/>
       <c r="M15" s="23">
@@ -1580,7 +1580,7 @@
       </c>
       <c r="P15" s="1">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="Q15" s="18" t="str">
         <f t="shared" si="0"/>

--- a/oceny.xlsx
+++ b/oceny.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mariusz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77EBF13C-5DDA-4DEC-A0E5-C85E3EA66DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4116121-0E71-4F10-84A9-3C5A08F2A9BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -929,8 +929,8 @@
   <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1443,24 +1443,38 @@
       <c r="B12" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
+      <c r="C12" s="21">
+        <v>2.5</v>
+      </c>
+      <c r="D12" s="22">
+        <v>4.5</v>
+      </c>
       <c r="E12" s="23"/>
       <c r="F12" s="22">
         <v>4.5</v>
       </c>
       <c r="G12" s="23"/>
-      <c r="H12" s="22"/>
+      <c r="H12" s="22">
+        <v>5</v>
+      </c>
       <c r="I12" s="23"/>
-      <c r="J12" s="22"/>
+      <c r="J12" s="22">
+        <v>4.5</v>
+      </c>
       <c r="K12" s="23"/>
-      <c r="L12" s="22"/>
+      <c r="L12" s="22">
+        <v>4.5</v>
+      </c>
       <c r="M12" s="23"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="23"/>
+      <c r="N12" s="22">
+        <v>4.5</v>
+      </c>
+      <c r="O12" s="23">
+        <v>10</v>
+      </c>
       <c r="P12" s="1">
         <f t="shared" si="1"/>
-        <v>4.5</v>
+        <v>40</v>
       </c>
       <c r="Q12" s="18" t="str">
         <f t="shared" si="0"/>

--- a/oceny.xlsx
+++ b/oceny.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mariusz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4116121-0E71-4F10-84A9-3C5A08F2A9BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A413E865-9861-4F22-8766-B376EDC5AFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
   <si>
     <t>Lp.</t>
   </si>
@@ -178,6 +178,57 @@
   </si>
   <si>
     <t>Zzzzzzzz Jan Wojciech</t>
+  </si>
+  <si>
+    <t>d512c8e3dc08fb2d1e8d22d36e6a162a756a7237cdd1fab6904491f8196d9b17</t>
+  </si>
+  <si>
+    <t>3d3ac11b66f8a9e53116bfa7dfcbb4c21d8fffa4c1709df6caa5f0b20526545c</t>
+  </si>
+  <si>
+    <t>ce8d28e7c9a6a49c58b0dc074484d1b85516c66c99753ba24e19a32a341638d8</t>
+  </si>
+  <si>
+    <t>91beb3262326223ac53c506af824d5c261756f6133463fec4087bdb5b9e3a8d3</t>
+  </si>
+  <si>
+    <t>20b0c9927a562718a1d45dfe529fcd223b1fb1e5dc45e4b1e4b3961676c5d467</t>
+  </si>
+  <si>
+    <t>b9f0520d80d855b474e806c9d7e362229d66e4f45a75e0fe053ef9767aa7396d</t>
+  </si>
+  <si>
+    <t>8848110eebbd2747214e193cf91aac11c05918573c753c4b1ac9d40fc74b5fb0</t>
+  </si>
+  <si>
+    <t>6bfe66a791a8b40d2ff2650d553ecc01060f920bdc8a0749b63a5c0df7aefd7c</t>
+  </si>
+  <si>
+    <t>8f075116c5fc13c05cf8e91648543ed9630c3ac396ee0667bab2d227c0f1576b</t>
+  </si>
+  <si>
+    <t>0cd19803993847d06497b256500a558cd2afed8ae70d40a0e93b2f7c4b0682f9</t>
+  </si>
+  <si>
+    <t>ddbb2f55350fce6fcfb4f06e3874952ddbbaa8a2a04af60fe3c289253aaa07aa</t>
+  </si>
+  <si>
+    <t>2e0c827843252d195749b4bd1cda2ea8cbc7a8b2ec77d115d790a722730ce395</t>
+  </si>
+  <si>
+    <t>fd5d85254fe84121251cc29ba390a6aa6a5a320f42c7d321d7c5e184ed0e6a86</t>
+  </si>
+  <si>
+    <t>c0b3402652b12e59ccc06c2b1c25cdead09c6d46aa4e96c2b8077abc858fb1b6</t>
+  </si>
+  <si>
+    <t>6532bd55b86fb02cde9815ed74d71c2ad1ccfaa691b5085245f1855857c742db</t>
+  </si>
+  <si>
+    <t>3f119e8cb45ea54f68720745a91a7a0b9e6af2f263a6465597fd02b278100793</t>
+  </si>
+  <si>
+    <t>6fa2d129d3ae414f966a4e67e89861a9a1ca5435610ae8dd4e939e19af8c8b23</t>
   </si>
 </sst>
 </file>
@@ -928,9 +979,9 @@
   </sheetPr>
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1878,8 +1929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9CCFBC9-1742-41D5-98EE-5DA8089F8EF2}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1888,136 +1939,136 @@
       <c r="A1">
         <v>1</v>
       </c>
-      <c r="B1">
-        <v>100201</v>
+      <c r="B1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>100202</v>
+      <c r="B2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>100203</v>
+      <c r="B3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>100204</v>
+      <c r="B4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>100205</v>
+      <c r="B5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>100206</v>
+      <c r="B6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>100207</v>
+      <c r="B7" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
-      <c r="B8">
-        <v>100208</v>
+      <c r="B8" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
-      <c r="B9">
-        <v>100209</v>
+      <c r="B9" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
-      <c r="B10">
-        <v>100210</v>
+      <c r="B10" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11</v>
       </c>
-      <c r="B11">
-        <v>100211</v>
+      <c r="B11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12</v>
       </c>
-      <c r="B12">
-        <v>100212</v>
+      <c r="B12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>13</v>
       </c>
-      <c r="B13">
-        <v>100213</v>
+      <c r="B13" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>14</v>
       </c>
-      <c r="B14">
-        <v>100214</v>
+      <c r="B14" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>15</v>
       </c>
-      <c r="B15">
-        <v>100215</v>
+      <c r="B15" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>16</v>
       </c>
-      <c r="B16">
-        <v>100216</v>
+      <c r="B16" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>17</v>
       </c>
-      <c r="B17">
-        <v>100217</v>
+      <c r="B17" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
